--- a/excel_basics/dz2/Семинар2_домзадание2.xlsx
+++ b/excel_basics/dz2/Семинар2_домзадание2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po100lit\PycharmProjects\GeekBrains\excel_basics\dz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9875866F-2069-43E3-A047-F242E7EDC545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42B587-AF46-41A0-9E74-11A5B7113D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="задание 1" sheetId="2" r:id="rId1"/>
@@ -217,8 +217,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000000%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -311,16 +311,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000000000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -368,12 +380,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,7 +633,7 @@
             <c:numRef>
               <c:f>'задание 1'!$D$2:$D$51</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0000000</c:formatCode>
+                <c:formatCode>#\ ##0.0000000000</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0000000000287557E-7</c:v>
@@ -4618,12 +4624,12 @@
   <autoFilter ref="A1:E51" xr:uid="{FDEE6BFD-55F1-4371-A662-E58173E73D81}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1F9D82DA-658A-481E-AA7B-D01A5F0463E0}" name="Номер п/п"/>
-    <tableColumn id="2" xr3:uid="{5E404D95-E88A-40DC-A454-DFF3CA32FB85}" name="Старт 1"/>
-    <tableColumn id="3" xr3:uid="{CADF64D3-1836-4EE9-8254-88C916C622EC}" name="Старт 2"/>
-    <tableColumn id="4" xr3:uid="{96133833-82BA-4530-8717-B46C514B2D78}" name="отклонение, ед." dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{5E404D95-E88A-40DC-A454-DFF3CA32FB85}" name="Старт 1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{CADF64D3-1836-4EE9-8254-88C916C622EC}" name="Старт 2" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{96133833-82BA-4530-8717-B46C514B2D78}" name="отклонение, ед." dataDxfId="1">
       <calculatedColumnFormula>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5BFC6D8E-F0B3-4EE0-8D0A-BBDA435B2730}" name="отклонение, %" dataDxfId="10" dataCellStyle="Процентный">
+    <tableColumn id="5" xr3:uid="{5BFC6D8E-F0B3-4EE0-8D0A-BBDA435B2730}" name="отклонение, %" dataDxfId="0" dataCellStyle="Процентный">
       <calculatedColumnFormula>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4636,7 +4642,7 @@
   <autoFilter ref="F3:G86" xr:uid="{5C67885D-4EA3-4205-AC1E-24A2F3ADF35D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{22A5A10A-6DCA-46BD-8148-AE8DBDAECF6E}" name="Код товара"/>
-    <tableColumn id="2" xr3:uid="{5FB24517-EF65-4FE7-B377-2C57B9CF5EBB}" name="Цена" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5FB24517-EF65-4FE7-B377-2C57B9CF5EBB}" name="Цена" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4648,10 +4654,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{823C5635-6DB2-4046-8715-603E9E8F86CE}" name="Код товара"/>
     <tableColumn id="2" xr3:uid="{ED73EAA6-5049-4A95-B288-9CA8653FF66F}" name="Количество"/>
-    <tableColumn id="3" xr3:uid="{6BD13B71-2040-4292-BB4B-0847A09DF3CE}" name="Цена" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{6BD13B71-2040-4292-BB4B-0847A09DF3CE}" name="Цена" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(M5,lookupprice,2,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C3A5EA19-B22C-4039-A36E-D489B441AEAA}" name="Стоимость" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{C3A5EA19-B22C-4039-A36E-D489B441AEAA}" name="Стоимость" dataDxfId="11">
       <calculatedColumnFormula>N5*O5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4663,12 +4669,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0C5E3A0E-1171-419B-ACB9-21A9AAC1A049}" name="auction" displayName="auction" ref="A1:F2" totalsRowShown="0">
   <autoFilter ref="A1:F2" xr:uid="{0C5E3A0E-1171-419B-ACB9-21A9AAC1A049}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E5E4D50-8529-4EF6-A274-4F8985E2D696}" name="Гарантиный взнос" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{FAA6F438-FFB9-4176-A4AC-6E9301F27FC8}" name="Мы" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E90244D5-F0DF-4C18-8107-4B28685DE458}" name="Конкурент 1" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E3F5566A-CD5C-42BF-B230-D8C61295AE03}" name="Конкурент 2" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{7593EFE6-D1EB-4C0E-B165-1A66592F2F16}" name="Конкурент 3" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B636941C-295E-4C9F-8C62-FA60328213CD}" name="Конкурент 4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2E5E4D50-8529-4EF6-A274-4F8985E2D696}" name="Гарантиный взнос" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FAA6F438-FFB9-4176-A4AC-6E9301F27FC8}" name="Мы" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E90244D5-F0DF-4C18-8107-4B28685DE458}" name="Конкурент 1" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E3F5566A-CD5C-42BF-B230-D8C61295AE03}" name="Конкурент 2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{7593EFE6-D1EB-4C0E-B165-1A66592F2F16}" name="Конкурент 3" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B636941C-295E-4C9F-8C62-FA60328213CD}" name="Конкурент 4" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4680,7 +4686,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B773CCF-3F13-4A15-948D-BDE09D12C1DE}" name="Цена конкурента"/>
     <tableColumn id="2" xr3:uid="{ED5D7818-F47C-48E3-B17F-7FA053A58C33}" name="Наша цена"/>
-    <tableColumn id="3" xr3:uid="{39CBC9D4-537A-41AD-A134-8069F8AF235D}" name="Наши прдажи" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{39CBC9D4-537A-41AD-A134-8069F8AF235D}" name="Наши прдажи" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(Sales[[#This Row],[Наша цена]]-Sales[[#This Row],[Цена конкурента]]&gt;300,Sales[[#This Row],[Наша цена]]*500,Sales[[#This Row],[Цена конкурента]]-Sales[[#This Row],[Наша цена]]&gt;300,Sales[[#This Row],[Наша цена]]*1500,ABS(Sales[[#This Row],[Наша цена]]-Sales[[#This Row],[Цена конкурента]])&lt;=300,Sales[[#This Row],[Наша цена]]*1000)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4953,31 +4959,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6543CF-A68B-4899-85BC-E46647ABF8CC}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4985,17 +4991,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>0.3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>0.30000009999999999</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>1.0000000000287557E-7</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.99999966666677775</v>
       </c>
@@ -5004,19 +5010,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <f>4*B2*(1-B2)</f>
         <v>0.84</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <f>4*C2*(1-C2)</f>
         <v>0.84000015999996003</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>1.5999996005877648E-7</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.99999980952389333</v>
       </c>
@@ -5025,19 +5031,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <f t="shared" ref="B4:B51" si="0">4*B3*(1-B3)</f>
         <v>0.53760000000000008</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <f t="shared" ref="C4:C51" si="1">4*C3*(1-C3)</f>
         <v>0.53759956480000637</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-4.3519999370911222E-7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0000008095244532</v>
       </c>
@@ -5046,19 +5052,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <f t="shared" si="0"/>
         <v>0.99434495999999994</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <f t="shared" si="1"/>
         <v>0.99434509090740053</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>1.3090740058618877E-7</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.99999986834812005</v>
       </c>
@@ -5067,19 +5073,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>2.249224209039382E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <f t="shared" si="1"/>
         <v>2.249172438301562E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-5.1770737819964441E-7</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0000230176828322</v>
       </c>
@@ -5088,19 +5094,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>8.7945364544563753E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <f t="shared" si="1"/>
         <v>8.7943386869176327E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-1.9776753874267694E-6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0000224880512092</v>
       </c>
@@ -5109,19 +5115,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>0.32084390959875014</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <f t="shared" si="1"/>
         <v>0.32083739030061886</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-6.5192981312800491E-6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0000203196333357</v>
       </c>
@@ -5130,19 +5136,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>0.87161238108855688</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <f t="shared" si="1"/>
         <v>0.87160303714282883</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-9.3439457280464211E-6</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0000107204143742</v>
       </c>
@@ -5151,19 +5157,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>0.44761695288677272</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <f t="shared" si="1"/>
         <v>0.4476447311449015</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>2.7778258128774436E-5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.99993794574984107</v>
       </c>
@@ -5172,19 +5178,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>0.98902406550053368</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <f t="shared" si="1"/>
         <v>0.9890357032924415</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>1.1637791907825878E-5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.99998823319333252</v>
       </c>
@@ -5193,19 +5199,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>4.3421853445318986E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <f t="shared" si="1"/>
         <v>4.3376323621068476E-2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-4.5529824250510609E-5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0010496469144838</v>
       </c>
@@ -5214,19 +5220,19 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>0.16614558435476889</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <f t="shared" si="1"/>
         <v>0.16597927268075524</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-1.6631167401365277E-4</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.001002002667728</v>
       </c>
@@ -5235,19 +5241,19 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>0.55416491661672507</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <f t="shared" si="1"/>
         <v>0.55372061488449098</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-4.4430173223408698E-4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0008023933375259</v>
       </c>
@@ -5256,19 +5262,19 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>0.98826464723161289</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <f t="shared" si="1"/>
         <v>0.98845638214572884</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>1.9173491411594856E-4</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.99980602592326862</v>
       </c>
@@ -5277,19 +5283,19 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>4.6390537055154467E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <f t="shared" si="1"/>
         <v>4.5641450964422847E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-7.4908609073161964E-4</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0164124074695944</v>
       </c>
@@ -5298,19 +5304,19 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>0.17695382050755523</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="10">
         <f t="shared" si="1"/>
         <v>0.17423323567314014</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-2.7205848344150907E-3</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0156146146508975</v>
       </c>
@@ -5319,19 +5325,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>0.58256466366134063</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <f t="shared" si="1"/>
         <v>0.5755040610400326</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-7.060602621308032E-3</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.01226855394999</v>
       </c>
@@ -5340,19 +5346,19 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>0.97273230525795884</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <f t="shared" si="1"/>
         <v>0.97719654706585213</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>4.4642418078932877E-3</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.99543158249863073</v>
       </c>
@@ -5361,19 +5367,19 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>0.10609667026198408</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <f t="shared" si="1"/>
         <v>8.9133821873711896E-2</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-1.6962848388272181E-2</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.1903076523780813</v>
       </c>
@@ -5382,19 +5388,19 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>0.37936066728521561</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <f t="shared" si="1"/>
         <v>0.32475593468758918</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-5.4604732597626437E-2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.168140830590688</v>
       </c>
@@ -5403,19 +5409,19 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <f t="shared" si="0"/>
         <v>0.94178460560852617</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="10">
         <f t="shared" si="1"/>
         <v>0.87715807029111792</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-6.4626535317408251E-2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.0736771826039968</v>
       </c>
@@ -5424,19 +5430,19 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>0.21930544898927595</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="10">
         <f t="shared" si="1"/>
         <v>0.43100716005712064</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.21170171106784469</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.50882089513364881</v>
       </c>
@@ -5445,19 +5451,19 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>0.68484227613155213</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <f t="shared" si="1"/>
         <v>0.98095995214646503</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.2961176760149129</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.69813479605668938</v>
       </c>
@@ -5466,19 +5472,19 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>0.86333333181802818</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="10">
         <f t="shared" si="1"/>
         <v>7.4710097725080277E-2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.78862323409294788</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>11.555778376772302</v>
       </c>
@@ -5493,19 +5499,19 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>0.47195555996004251</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
         <f t="shared" si="1"/>
         <v>0.27651399609195693</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.19544156386808559</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.7068053213591761</v>
       </c>
@@ -5514,19 +5520,19 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>0.99685403753138102</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="10">
         <f t="shared" si="1"/>
         <v>0.80021602422885663</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.19663801330252439</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.2457311617722455</v>
       </c>
@@ -5535,19 +5541,19 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>1.2544261555060079E-2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="10">
         <f t="shared" si="1"/>
         <v>0.63948135518487426</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.6269370936298142</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.9616305390848382E-2</v>
       </c>
@@ -5556,19 +5562,19 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>4.9547612228393281E-2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="10">
         <f t="shared" si="1"/>
         <v>0.92217980622316376</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.87263219399477043</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>5.3728797674846243E-2</v>
       </c>
@@ -5577,19 +5583,19 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>0.18837058540343221</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="10">
         <f t="shared" si="1"/>
         <v>0.28705684486948763</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>9.8686259466055415E-2</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.65621352972466551</v>
       </c>
@@ -5598,19 +5604,19 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="10">
         <f t="shared" si="0"/>
         <v>0.61154843183280183</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="10">
         <f t="shared" si="1"/>
         <v>0.8186208507322501</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.20707241889944827</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.74704722129393164</v>
       </c>
@@ -5619,19 +5625,19 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>0.95022778942257102</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="10">
         <f t="shared" si="1"/>
         <v>0.59392301391462876</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.35630477550794226</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.5999174424299341</v>
       </c>
@@ -5640,19 +5646,19 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="10">
         <f t="shared" si="0"/>
         <v>0.18917975052666017</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="10">
         <f t="shared" si="1"/>
         <v>0.96471386982876983</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.77553411930210969</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.19609933726799045</v>
       </c>
@@ -5661,19 +5667,19 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>0.61356309006932319</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="10">
         <f t="shared" si="1"/>
         <v>0.13616407675507666</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.4773990133142465</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>4.5060569916172657</v>
       </c>
@@ -5682,19 +5688,19 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="10">
         <f t="shared" si="0"/>
         <v>0.94841369829562716</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="10">
         <f t="shared" si="1"/>
         <v>0.470493683826057</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.47792001446957016</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>2.0157841239931686</v>
       </c>
@@ -5703,19 +5709,19 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="10">
         <f t="shared" si="0"/>
         <v>0.19570062072335304</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="10">
         <f t="shared" si="1"/>
         <v>0.99651750922337334</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.80081688850002031</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.19638452803089279</v>
       </c>
@@ -5724,19 +5730,19 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="10">
         <f t="shared" si="0"/>
         <v>0.62960755108738942</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <f t="shared" si="1"/>
         <v>1.3881452138469468E-2</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.61572609894891994</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>45.35602938417135</v>
       </c>
@@ -5745,19 +5751,19 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="10">
         <f t="shared" si="0"/>
         <v>0.93280753080451895</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="10">
         <f t="shared" si="1"/>
         <v>5.4755029699987398E-2</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.87805250110453159</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>17.036015429368558</v>
       </c>
@@ -5766,19 +5772,19 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>0.25071056511558154</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="10">
         <f t="shared" si="1"/>
         <v>0.20702766569016359</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-4.3682899425417948E-2</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.2110002993068256</v>
       </c>
@@ -5787,19 +5793,19 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="10">
         <f t="shared" si="0"/>
         <v>0.7514191106200292</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="10">
         <f t="shared" si="1"/>
         <v>0.65666884531618175</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-9.4750265303847447E-2</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.1442892654032122</v>
       </c>
@@ -5808,19 +5814,19 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>0.74715372326013407</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="10">
         <f t="shared" si="1"/>
         <v>0.90181949162917729</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.15466576836904322</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.82849586884662185</v>
       </c>
@@ -5829,19 +5835,19 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>0.75566014831461226</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="10">
         <f t="shared" si="1"/>
         <v>0.35416438458747806</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.40149576372713419</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>2.133642402227391</v>
       </c>
@@ -5850,19 +5856,19 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="10">
         <f t="shared" si="0"/>
         <v>0.73855155425500185</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="10">
         <f t="shared" si="1"/>
         <v>0.91492789310900402</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.17637633885400217</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.80722378213362789</v>
       </c>
@@ -5871,19 +5877,19 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="10">
         <f t="shared" si="0"/>
         <v>0.77237262385009164</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="10">
         <f t="shared" si="1"/>
         <v>0.31133937408049173</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.46103324976959992</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>2.4808061175404279</v>
       </c>
@@ -5892,19 +5898,19 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="10">
         <f t="shared" si="0"/>
         <v>0.70325261510806591</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="10">
         <f t="shared" si="1"/>
         <v>0.85762867291063749</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.15437605780257158</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.81999662245590854</v>
       </c>
@@ -5913,19 +5919,19 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="10">
         <f t="shared" si="0"/>
         <v>0.83475349780692965</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="10">
         <f t="shared" si="1"/>
         <v>0.48840692924870505</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.3463465685582246</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>1.7091352473049355</v>
       </c>
@@ -5934,19 +5940,19 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="10">
         <f t="shared" si="0"/>
         <v>0.55176038282410378</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="10">
         <f t="shared" si="1"/>
         <v>0.99946240284222199</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>0.44770202001811821</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>0.55205716718811504</v>
       </c>
@@ -5955,19 +5961,19 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="10">
         <f t="shared" si="0"/>
         <v>0.98928345107960891</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="10">
         <f t="shared" si="1"/>
         <v>2.1492325882958505E-3</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.98713421849131311</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>460.29613382329291</v>
       </c>
@@ -5976,19 +5982,19 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="10">
         <f t="shared" si="0"/>
         <v>4.2406817998511814E-2</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="10">
         <f t="shared" si="1"/>
         <v>8.5784535503090308E-3</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-3.382836444820278E-2</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>4.9434105750895103</v>
       </c>
@@ -5997,19 +6003,19 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="10">
         <f t="shared" si="0"/>
         <v>0.16243391914301164</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="10">
         <f t="shared" si="1"/>
         <v>3.4019454739976883E-2</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.12841446440303475</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>4.7747361145131046</v>
       </c>
@@ -6018,28 +6024,29 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="10">
         <f t="shared" si="0"/>
         <v>0.54419656421941276</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="10">
         <f t="shared" si="1"/>
         <v>0.1314485257566862</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="10">
         <f>butterfly_effect[[#This Row],[Старт 2]]-butterfly_effect[[#This Row],[Старт 1]]</f>
         <v>-0.41274803846272656</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="11">
         <f>butterfly_effect[[#This Row],[Старт 1]]/butterfly_effect[[#This Row],[Старт 2]]</f>
         <v>4.139997471152558</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7040,27 +7047,27 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>4000</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>100000</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>96000</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>80000</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>78000</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>99500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="b" cm="1">
@@ -7069,7 +7076,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B5" cm="1">
@@ -7089,7 +7096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D94CA0B-3F7C-47D9-9A21-8FE145D61E85}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7118,7 +7125,7 @@
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="10" cm="1">
+      <c r="C2" s="8" cm="1">
         <f t="array" ref="C2">_xlfn.IFS(Sales[[#This Row],[Наша цена]]-Sales[[#This Row],[Цена конкурента]]&gt;300,Sales[[#This Row],[Наша цена]]*500,Sales[[#This Row],[Цена конкурента]]-Sales[[#This Row],[Наша цена]]&gt;300,Sales[[#This Row],[Наша цена]]*1500,ABS(Sales[[#This Row],[Наша цена]]-Sales[[#This Row],[Цена конкурента]])&lt;=300,Sales[[#This Row],[Наша цена]]*1000)</f>
         <v>150000</v>
       </c>
